--- a/data/trans_orig/iP18_E_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/iP18_E_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FA32FE6-0F5E-420E-A9D0-49D8E43409C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{654D2324-93ED-4DF7-9C81-FC562D81FA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{62EDD352-17F7-428A-A700-2FE0C35E7BFB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ED1F9289-6156-4CD3-B87E-509550721BFF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="276">
   <si>
     <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2007 (Tasa respuesta: 85,6%)</t>
   </si>
@@ -104,205 +104,211 @@
     <t>99,05%</t>
   </si>
   <si>
-    <t>95,23%</t>
+    <t>95,22%</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
     <t>93,96%</t>
   </si>
   <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
   </si>
   <si>
     <t>6,04%</t>
   </si>
   <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
     <t>Universitarios</t>
   </si>
   <si>
     <t>83,19%</t>
   </si>
   <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
   </si>
   <si>
     <t>86,88%</t>
   </si>
   <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
   </si>
   <si>
     <t>85,13%</t>
   </si>
   <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
   </si>
   <si>
     <t>16,81%</t>
   </si>
   <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
   </si>
   <si>
     <t>13,12%</t>
   </si>
   <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
   </si>
   <si>
     <t>14,87%</t>
   </si>
   <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
   </si>
   <si>
     <t>93,04%</t>
   </si>
   <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
   </si>
   <si>
     <t>93,57%</t>
   </si>
   <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
   </si>
   <si>
     <t>93,3%</t>
   </si>
   <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
   </si>
   <si>
     <t>6,96%</t>
   </si>
   <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
   </si>
   <si>
     <t>6,43%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
   </si>
   <si>
     <t>6,7%</t>
   </si>
   <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -314,394 +320,382 @@
     <t>99,16%</t>
   </si>
   <si>
-    <t>96,14%</t>
+    <t>95,27%</t>
   </si>
   <si>
     <t>99,22%</t>
   </si>
   <si>
-    <t>96,81%</t>
-  </si>
-  <si>
     <t>99,19%</t>
   </si>
   <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2016 (Tasa respuesta: 90,78%)</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
     <t>97,19%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
   </si>
   <si>
     <t>92,39%</t>
   </si>
   <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2015 (Tasa respuesta: 90,78%)</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
     <t>5,95%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
   </si>
   <si>
     <t>5,92%</t>
   </si>
   <si>
-    <t>4,9%</t>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
   </si>
   <si>
     <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2023 (Tasa respuesta: 17,76%)</t>
@@ -710,145 +704,127 @@
     <t>86,51%</t>
   </si>
   <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
   </si>
   <si>
     <t>13,49%</t>
   </si>
   <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
   </si>
   <si>
     <t>96,92%</t>
   </si>
   <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
   </si>
   <si>
     <t>86,22%</t>
   </si>
   <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
   </si>
   <si>
     <t>92,33%</t>
   </si>
   <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
+    <t>86,66%</t>
   </si>
   <si>
     <t>3,08%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
   </si>
   <si>
     <t>13,78%</t>
   </si>
   <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
   </si>
   <si>
     <t>7,67%</t>
   </si>
   <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
+    <t>13,34%</t>
   </si>
   <si>
     <t>82,83%</t>
   </si>
   <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
   </si>
   <si>
     <t>78,66%</t>
   </si>
   <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
   </si>
   <si>
     <t>80,83%</t>
   </si>
   <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
   </si>
   <si>
     <t>17,17%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
   </si>
   <si>
     <t>21,34%</t>
   </si>
   <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
   </si>
   <si>
     <t>19,17%</t>
   </si>
   <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
   </si>
   <si>
     <t>93,84%</t>
   </si>
   <si>
-    <t>89,71%</t>
+    <t>89,74%</t>
   </si>
   <si>
     <t>96,79%</t>
@@ -857,19 +833,16 @@
     <t>84,67%</t>
   </si>
   <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
   </si>
   <si>
     <t>89,79%</t>
   </si>
   <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
+    <t>85,02%</t>
   </si>
   <si>
     <t>6,16%</t>
@@ -878,25 +851,22 @@
     <t>3,21%</t>
   </si>
   <si>
-    <t>10,29%</t>
+    <t>10,26%</t>
   </si>
   <si>
     <t>15,33%</t>
   </si>
   <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
   </si>
   <si>
     <t>10,21%</t>
   </si>
   <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
+    <t>14,98%</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F47AA0-46E7-48E9-9D08-F378B5B3A5EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A05FC0-871A-4A60-B878-E7BB5AE082EE}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1617,7 +1587,7 @@
         <v>25</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1632,13 +1602,13 @@
         <v>686</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -1647,13 +1617,13 @@
         <v>1100</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -1662,13 +1632,13 @@
         <v>1786</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1724,7 +1694,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1736,13 +1706,13 @@
         <v>384448</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H10" s="7">
         <v>525</v>
@@ -1751,13 +1721,13 @@
         <v>348883</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M10" s="7">
         <v>1107</v>
@@ -1766,13 +1736,13 @@
         <v>733332</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1787,13 +1757,13 @@
         <v>18943</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H11" s="7">
         <v>26</v>
@@ -1802,13 +1772,13 @@
         <v>16767</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M11" s="7">
         <v>53</v>
@@ -1817,13 +1787,13 @@
         <v>35709</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1879,7 +1849,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1891,13 +1861,13 @@
         <v>114116</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H13" s="7">
         <v>192</v>
@@ -1906,13 +1876,13 @@
         <v>132593</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M13" s="7">
         <v>362</v>
@@ -1921,13 +1891,13 @@
         <v>246709</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1942,13 +1912,13 @@
         <v>23062</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -1957,13 +1927,13 @@
         <v>20027</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M14" s="7">
         <v>65</v>
@@ -1972,13 +1942,13 @@
         <v>43089</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2046,13 +2016,13 @@
         <v>570635</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>820</v>
@@ -2061,13 +2031,13 @@
         <v>551087</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>1680</v>
@@ -2076,13 +2046,13 @@
         <v>1121722</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2097,13 +2067,13 @@
         <v>42691</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>58</v>
@@ -2112,13 +2082,13 @@
         <v>37894</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>121</v>
@@ -2127,13 +2097,13 @@
         <v>80585</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2189,7 +2159,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2209,7 +2179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A449BBA0-BED1-436E-8CE5-A88566B6A89E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D44BA9-E276-48E5-8BA8-6A3E2AF0BFC5}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2226,7 +2196,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2482,10 +2452,10 @@
         <v>77639</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -2497,10 +2467,10 @@
         <v>86435</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -2512,10 +2482,10 @@
         <v>164074</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -2533,13 +2503,13 @@
         <v>654</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2548,13 +2518,13 @@
         <v>678</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -2625,7 +2595,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2780,7 +2750,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2968,7 +2938,7 @@
         <v>142</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>1866</v>
@@ -2977,13 +2947,13 @@
         <v>1304616</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,13 +2968,13 @@
         <v>38000</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H17" s="7">
         <v>50</v>
@@ -3013,13 +2983,13 @@
         <v>35198</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M17" s="7">
         <v>105</v>
@@ -3028,13 +2998,13 @@
         <v>73198</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,7 +3060,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3110,7 +3080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38507119-DCC3-4F18-80E6-EE0ED1445927}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BCF8E3-D3AE-4CE6-BB06-4B499FCCADAD}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3127,7 +3097,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3371,10 +3341,10 @@
         <v>61290</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -3386,10 +3356,10 @@
         <v>53980</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -3401,13 +3371,13 @@
         <v>115270</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,13 +3392,13 @@
         <v>1207</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -3437,13 +3407,13 @@
         <v>1332</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -3452,13 +3422,13 @@
         <v>2538</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,7 +3484,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3526,13 +3496,13 @@
         <v>421787</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H10" s="7">
         <v>633</v>
@@ -3541,13 +3511,13 @@
         <v>419257</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M10" s="7">
         <v>1231</v>
@@ -3556,13 +3526,13 @@
         <v>841045</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,13 +3547,13 @@
         <v>14623</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H11" s="7">
         <v>28</v>
@@ -3592,13 +3562,13 @@
         <v>17618</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M11" s="7">
         <v>51</v>
@@ -3607,13 +3577,13 @@
         <v>32241</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,7 +3639,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3681,13 +3651,13 @@
         <v>146581</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H13" s="7">
         <v>201</v>
@@ -3696,13 +3666,13 @@
         <v>135098</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M13" s="7">
         <v>412</v>
@@ -3711,13 +3681,13 @@
         <v>281679</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3732,13 +3702,13 @@
         <v>23571</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
@@ -3747,13 +3717,13 @@
         <v>19529</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M14" s="7">
         <v>64</v>
@@ -3762,13 +3732,13 @@
         <v>43100</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,13 +3806,13 @@
         <v>629659</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>207</v>
+        <v>38</v>
       </c>
       <c r="H16" s="7">
         <v>915</v>
@@ -3851,13 +3821,13 @@
         <v>608336</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M16" s="7">
         <v>1811</v>
@@ -3866,13 +3836,13 @@
         <v>1237994</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,13 +3857,13 @@
         <v>39401</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>214</v>
+        <v>47</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H17" s="7">
         <v>59</v>
@@ -3902,13 +3872,13 @@
         <v>38478</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M17" s="7">
         <v>119</v>
@@ -3917,13 +3887,13 @@
         <v>77879</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,7 +3949,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3999,7 +3969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53BCBB20-CA23-466F-B9C7-04749B14262F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0E7184-52D2-4434-9A7F-90AA72DCEF2E}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4016,7 +3986,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4263,7 +4233,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -4275,10 +4245,10 @@
         <v>6183</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>223</v>
+        <v>106</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -4290,10 +4260,10 @@
         <v>15039</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>225</v>
+        <v>96</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -4317,7 +4287,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4326,13 +4296,13 @@
         <v>391</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>228</v>
+        <v>116</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4341,13 +4311,13 @@
         <v>391</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>230</v>
+        <v>101</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4403,7 +4373,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4415,13 +4385,13 @@
         <v>85270</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="H10" s="7">
         <v>87</v>
@@ -4430,13 +4400,13 @@
         <v>56912</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M10" s="7">
         <v>217</v>
@@ -4445,13 +4415,13 @@
         <v>142181</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>240</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,13 +4436,13 @@
         <v>2712</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -4481,13 +4451,13 @@
         <v>9097</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="M11" s="7">
         <v>16</v>
@@ -4496,13 +4466,13 @@
         <v>11810</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>248</v>
+        <v>98</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,7 +4528,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4570,13 +4540,13 @@
         <v>24509</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -4585,13 +4555,13 @@
         <v>21506</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="M13" s="7">
         <v>67</v>
@@ -4600,13 +4570,13 @@
         <v>46015</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,13 +4591,13 @@
         <v>5079</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -4636,13 +4606,13 @@
         <v>5834</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -4651,13 +4621,13 @@
         <v>10913</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4725,13 +4695,13 @@
         <v>118634</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="H16" s="7">
         <v>131</v>
@@ -4740,13 +4710,13 @@
         <v>84601</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="M16" s="7">
         <v>307</v>
@@ -4755,13 +4725,13 @@
         <v>203235</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>276</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4776,13 +4746,13 @@
         <v>7791</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -4791,13 +4761,13 @@
         <v>15322</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -4806,13 +4776,13 @@
         <v>23113</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>284</v>
+        <v>133</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4868,7 +4838,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/iP18_E_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/iP18_E_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{654D2324-93ED-4DF7-9C81-FC562D81FA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70074416-DF90-4989-9DF9-47A4F8483ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ED1F9289-6156-4CD3-B87E-509550721BFF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{12DB71F1-5438-4E56-8EEF-8C7DA1A80764}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="278">
   <si>
     <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2007 (Tasa respuesta: 85,6%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,805 +68,811 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2012 (Tasa respuesta: 93,9%)</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2016 (Tasa respuesta: 90,78%)</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2012 (Tasa respuesta: 93,9%)</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2016 (Tasa respuesta: 90,78%)</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
     <t>13,49%</t>
   </si>
   <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
   </si>
   <si>
     <t>85,02%</t>
   </si>
   <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
   </si>
   <si>
     <t>14,98%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
   </si>
 </sst>
 </file>
@@ -1278,8 +1284,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A05FC0-871A-4A60-B878-E7BB5AE082EE}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC50987F-6A63-4FE4-B38C-FD120C8BE813}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1396,10 +1402,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="D4" s="7">
-        <v>726</v>
+        <v>69611</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1411,81 +1417,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>107</v>
+      </c>
+      <c r="I4" s="7">
+        <v>71345</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="N4" s="7">
-        <v>726</v>
+        <v>140955</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>686</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>1786</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1494,151 +1504,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>70711</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="I6" s="7">
+        <v>72031</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>213</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>142741</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>107</v>
+        <v>525</v>
       </c>
       <c r="D7" s="7">
-        <v>71345</v>
+        <v>348883</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
-        <v>103</v>
+        <v>582</v>
       </c>
       <c r="I7" s="7">
-        <v>69611</v>
+        <v>384448</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
-        <v>210</v>
+        <v>1107</v>
       </c>
       <c r="N7" s="7">
-        <v>140955</v>
+        <v>733332</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D8" s="7">
-        <v>686</v>
+        <v>16767</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="7">
         <v>27</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
       <c r="I8" s="7">
-        <v>1100</v>
+        <v>18943</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="N8" s="7">
-        <v>1786</v>
+        <v>35709</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1647,153 +1659,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>108</v>
+        <v>551</v>
       </c>
       <c r="D9" s="7">
-        <v>72031</v>
+        <v>365650</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>105</v>
+        <v>609</v>
       </c>
       <c r="I9" s="7">
-        <v>70711</v>
+        <v>403391</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>213</v>
+        <v>1160</v>
       </c>
       <c r="N9" s="7">
-        <v>142741</v>
+        <v>769041</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>582</v>
+        <v>192</v>
       </c>
       <c r="D10" s="7">
-        <v>384448</v>
+        <v>132593</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
-        <v>525</v>
+        <v>170</v>
       </c>
       <c r="I10" s="7">
-        <v>348883</v>
+        <v>114116</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
-        <v>1107</v>
+        <v>362</v>
       </c>
       <c r="N10" s="7">
-        <v>733332</v>
+        <v>246709</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7">
-        <v>18943</v>
+        <v>20027</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I11" s="7">
-        <v>16767</v>
+        <v>23062</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="N11" s="7">
-        <v>35709</v>
+        <v>43089</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,153 +1814,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>609</v>
+        <v>222</v>
       </c>
       <c r="D12" s="7">
-        <v>403391</v>
+        <v>152620</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>551</v>
+        <v>205</v>
       </c>
       <c r="I12" s="7">
-        <v>365650</v>
+        <v>137178</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>1160</v>
+        <v>427</v>
       </c>
       <c r="N12" s="7">
-        <v>769041</v>
+        <v>289798</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>170</v>
+        <v>820</v>
       </c>
       <c r="D13" s="7">
-        <v>114116</v>
+        <v>551087</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="H13" s="7">
-        <v>192</v>
+        <v>859</v>
       </c>
       <c r="I13" s="7">
-        <v>132593</v>
+        <v>569909</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
-        <v>362</v>
+        <v>1679</v>
       </c>
       <c r="N13" s="7">
-        <v>246709</v>
+        <v>1120995</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D14" s="7">
-        <v>23062</v>
+        <v>37894</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="7">
         <v>63</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="7">
-        <v>30</v>
-      </c>
       <c r="I14" s="7">
-        <v>20027</v>
+        <v>42690</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="N14" s="7">
-        <v>43089</v>
+        <v>80585</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1957,216 +1969,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>205</v>
+        <v>878</v>
       </c>
       <c r="D15" s="7">
-        <v>137178</v>
+        <v>588981</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>222</v>
+        <v>922</v>
       </c>
       <c r="I15" s="7">
-        <v>152620</v>
+        <v>612599</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>427</v>
+        <v>1800</v>
       </c>
       <c r="N15" s="7">
-        <v>289798</v>
+        <v>1201580</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>860</v>
-      </c>
-      <c r="D16" s="7">
-        <v>570635</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="7">
-        <v>820</v>
-      </c>
-      <c r="I16" s="7">
-        <v>551087</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1680</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1121722</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>63</v>
-      </c>
-      <c r="D17" s="7">
-        <v>42691</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="A16" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="7">
-        <v>58</v>
-      </c>
-      <c r="I17" s="7">
-        <v>37894</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M17" s="7">
-        <v>121</v>
-      </c>
-      <c r="N17" s="7">
-        <v>80585</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>923</v>
-      </c>
-      <c r="D18" s="7">
-        <v>613326</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>878</v>
-      </c>
-      <c r="I18" s="7">
-        <v>588981</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1801</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1202307</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>90</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2179,8 +2035,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D44BA9-E276-48E5-8BA8-6A3E2AF0BFC5}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDB12AD-BA1C-4B21-AC64-985D0231A6D0}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2196,7 +2052,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2297,44 +2153,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="D4" s="7">
-        <v>641</v>
+        <v>86435</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>109</v>
+      </c>
+      <c r="I4" s="7">
+        <v>77639</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>234</v>
       </c>
       <c r="N4" s="7">
-        <v>641</v>
+        <v>164074</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2343,50 +2201,52 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>678</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>654</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,151 +2255,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>87113</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>110</v>
+      </c>
+      <c r="I6" s="7">
+        <v>78293</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>236</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>165406</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>109</v>
+        <v>589</v>
       </c>
       <c r="D7" s="7">
-        <v>77639</v>
+        <v>406266</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="H7" s="7">
-        <v>125</v>
+        <v>642</v>
       </c>
       <c r="I7" s="7">
-        <v>86435</v>
+        <v>449400</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="M7" s="7">
-        <v>234</v>
+        <v>1231</v>
       </c>
       <c r="N7" s="7">
-        <v>164074</v>
+        <v>855666</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D8" s="7">
-        <v>654</v>
+        <v>17568</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="I8" s="7">
-        <v>678</v>
+        <v>18430</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="N8" s="7">
-        <v>1332</v>
+        <v>35998</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,153 +2410,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>110</v>
+        <v>614</v>
       </c>
       <c r="D9" s="7">
-        <v>78293</v>
+        <v>423834</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>126</v>
+        <v>668</v>
       </c>
       <c r="I9" s="7">
-        <v>87113</v>
+        <v>467830</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>236</v>
+        <v>1282</v>
       </c>
       <c r="N9" s="7">
-        <v>165406</v>
+        <v>891664</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>642</v>
+        <v>195</v>
       </c>
       <c r="D10" s="7">
-        <v>449400</v>
+        <v>138114</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="H10" s="7">
-        <v>589</v>
+        <v>205</v>
       </c>
       <c r="I10" s="7">
-        <v>406266</v>
+        <v>146120</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="M10" s="7">
-        <v>1231</v>
+        <v>400</v>
       </c>
       <c r="N10" s="7">
-        <v>855666</v>
+        <v>284234</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7">
-        <v>18430</v>
+        <v>16952</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="H11" s="7">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I11" s="7">
-        <v>17568</v>
+        <v>18916</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="M11" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N11" s="7">
-        <v>35998</v>
+        <v>35868</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,153 +2565,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>668</v>
+        <v>219</v>
       </c>
       <c r="D12" s="7">
-        <v>467830</v>
+        <v>155066</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>614</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>423834</v>
+        <v>165036</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>1282</v>
+        <v>452</v>
       </c>
       <c r="N12" s="7">
-        <v>891664</v>
+        <v>320102</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>205</v>
+        <v>909</v>
       </c>
       <c r="D13" s="7">
-        <v>146120</v>
+        <v>630816</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="H13" s="7">
-        <v>195</v>
+        <v>956</v>
       </c>
       <c r="I13" s="7">
-        <v>138114</v>
+        <v>673159</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="M13" s="7">
-        <v>400</v>
+        <v>1865</v>
       </c>
       <c r="N13" s="7">
-        <v>284234</v>
+        <v>1303975</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D14" s="7">
-        <v>18916</v>
+        <v>35198</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="H14" s="7">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="I14" s="7">
-        <v>16952</v>
+        <v>38000</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="M14" s="7">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="N14" s="7">
-        <v>35868</v>
+        <v>73198</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,216 +2720,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>233</v>
+        <v>959</v>
       </c>
       <c r="D15" s="7">
-        <v>165036</v>
+        <v>666014</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>219</v>
+        <v>1011</v>
       </c>
       <c r="I15" s="7">
-        <v>155066</v>
+        <v>711159</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>452</v>
+        <v>1970</v>
       </c>
       <c r="N15" s="7">
-        <v>320102</v>
+        <v>1377173</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>957</v>
-      </c>
-      <c r="D16" s="7">
-        <v>673800</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H16" s="7">
-        <v>909</v>
-      </c>
-      <c r="I16" s="7">
-        <v>630816</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1866</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1304616</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>55</v>
-      </c>
-      <c r="D17" s="7">
-        <v>38000</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H17" s="7">
-        <v>50</v>
-      </c>
-      <c r="I17" s="7">
-        <v>35198</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="M17" s="7">
-        <v>105</v>
-      </c>
-      <c r="N17" s="7">
-        <v>73198</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1012</v>
-      </c>
-      <c r="D18" s="7">
-        <v>711800</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>959</v>
-      </c>
-      <c r="I18" s="7">
-        <v>666014</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1971</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1377814</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>90</v>
+      <c r="A16" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3080,8 +2786,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BCF8E3-D3AE-4CE6-BB06-4B499FCCADAD}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A750E5F-FA8E-48BF-8AFE-09E12EF7F89D}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3097,7 +2803,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3198,88 +2904,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="D4" s="7">
+        <v>53980</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="I4" s="7">
+        <v>61290</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>168</v>
+      </c>
+      <c r="N4" s="7">
+        <v>115270</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1332</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1207</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2538</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,147 +3006,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="D6" s="7">
+        <v>55312</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="I6" s="7">
+        <v>62497</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>172</v>
+      </c>
+      <c r="N6" s="7">
+        <v>117808</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>87</v>
+        <v>633</v>
       </c>
       <c r="D7" s="7">
-        <v>61290</v>
+        <v>419257</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="H7" s="7">
-        <v>81</v>
+        <v>598</v>
       </c>
       <c r="I7" s="7">
-        <v>53980</v>
+        <v>421787</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="M7" s="7">
-        <v>168</v>
+        <v>1231</v>
       </c>
       <c r="N7" s="7">
-        <v>115270</v>
+        <v>841045</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D8" s="7">
-        <v>1207</v>
+        <v>17618</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="I8" s="7">
-        <v>1332</v>
+        <v>14623</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="N8" s="7">
-        <v>2538</v>
+        <v>32241</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>88</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,153 +3161,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>89</v>
+        <v>661</v>
       </c>
       <c r="D9" s="7">
-        <v>62497</v>
+        <v>436875</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>83</v>
+        <v>621</v>
       </c>
       <c r="I9" s="7">
-        <v>55312</v>
+        <v>436410</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>172</v>
+        <v>1282</v>
       </c>
       <c r="N9" s="7">
-        <v>117808</v>
+        <v>873286</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>598</v>
+        <v>201</v>
       </c>
       <c r="D10" s="7">
-        <v>421787</v>
+        <v>135098</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="H10" s="7">
-        <v>633</v>
+        <v>211</v>
       </c>
       <c r="I10" s="7">
-        <v>419257</v>
+        <v>146581</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="M10" s="7">
-        <v>1231</v>
+        <v>412</v>
       </c>
       <c r="N10" s="7">
-        <v>841045</v>
+        <v>281679</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D11" s="7">
-        <v>14623</v>
+        <v>19529</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="H11" s="7">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I11" s="7">
-        <v>17618</v>
+        <v>23571</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="M11" s="7">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="N11" s="7">
-        <v>32241</v>
+        <v>43100</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,153 +3316,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>621</v>
+        <v>230</v>
       </c>
       <c r="D12" s="7">
-        <v>436410</v>
+        <v>154627</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>661</v>
+        <v>246</v>
       </c>
       <c r="I12" s="7">
-        <v>436875</v>
+        <v>170152</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>1282</v>
+        <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>873286</v>
+        <v>324779</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>211</v>
+        <v>915</v>
       </c>
       <c r="D13" s="7">
-        <v>146581</v>
+        <v>608336</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7">
+        <v>896</v>
+      </c>
+      <c r="I13" s="7">
+        <v>629659</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="I13" s="7">
-        <v>135098</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="K13" s="7" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7">
-        <v>412</v>
+        <v>1811</v>
       </c>
       <c r="N13" s="7">
-        <v>281679</v>
+        <v>1237994</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="D14" s="7">
-        <v>23571</v>
+        <v>38478</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="I14" s="7">
-        <v>19529</v>
+        <v>39401</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="N14" s="7">
-        <v>43100</v>
+        <v>77879</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,216 +3471,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>246</v>
+        <v>974</v>
       </c>
       <c r="D15" s="7">
-        <v>170152</v>
+        <v>646814</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>230</v>
+        <v>956</v>
       </c>
       <c r="I15" s="7">
-        <v>154627</v>
+        <v>669060</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>476</v>
+        <v>1930</v>
       </c>
       <c r="N15" s="7">
-        <v>324779</v>
+        <v>1315873</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>896</v>
-      </c>
-      <c r="D16" s="7">
-        <v>629659</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="7">
-        <v>915</v>
-      </c>
-      <c r="I16" s="7">
-        <v>608336</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1811</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1237994</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>60</v>
-      </c>
-      <c r="D17" s="7">
-        <v>39401</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H17" s="7">
-        <v>59</v>
-      </c>
-      <c r="I17" s="7">
-        <v>38478</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M17" s="7">
-        <v>119</v>
-      </c>
-      <c r="N17" s="7">
-        <v>77879</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>956</v>
-      </c>
-      <c r="D18" s="7">
-        <v>669060</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>974</v>
-      </c>
-      <c r="I18" s="7">
-        <v>646814</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1930</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1315873</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>90</v>
+      <c r="A16" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3969,8 +3537,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0E7184-52D2-4434-9A7F-90AA72DCEF2E}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C65446-D561-4070-A8E6-71BA05A9B5A7}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3986,7 +3554,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4087,88 +3655,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6154</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="I4" s="7">
+        <v>9434</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="N4" s="7">
+        <v>15588</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>221</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>391</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>223</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>224</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>391</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,147 +3757,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="D6" s="7">
+        <v>6545</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="I6" s="7">
+        <v>9434</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="N6" s="7">
+        <v>15979</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="D7" s="7">
-        <v>8856</v>
+        <v>56317</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="I7" s="7">
-        <v>6183</v>
+        <v>88447</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>106</v>
+        <v>231</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>233</v>
       </c>
       <c r="M7" s="7">
-        <v>23</v>
+        <v>217</v>
       </c>
       <c r="N7" s="7">
-        <v>15039</v>
+        <v>144764</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>96</v>
+        <v>234</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>9921</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H8" s="7">
+        <v>5</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2802</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M8" s="7">
         <v>16</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>391</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1</v>
-      </c>
       <c r="N8" s="7">
-        <v>391</v>
+        <v>12723</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>101</v>
+        <v>243</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>16</v>
+        <v>244</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,153 +3912,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="D9" s="7">
-        <v>8856</v>
+        <v>66238</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="I9" s="7">
-        <v>6574</v>
+        <v>91249</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>24</v>
+        <v>233</v>
       </c>
       <c r="N9" s="7">
-        <v>15430</v>
+        <v>157487</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="D10" s="7">
-        <v>85270</v>
+        <v>21679</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="H10" s="7">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="I10" s="7">
-        <v>56912</v>
+        <v>25585</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="M10" s="7">
-        <v>217</v>
+        <v>67</v>
       </c>
       <c r="N10" s="7">
-        <v>142181</v>
+        <v>47265</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>93</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D11" s="7">
-        <v>2712</v>
+        <v>5852</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="H11" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I11" s="7">
-        <v>9097</v>
+        <v>5324</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="M11" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N11" s="7">
-        <v>11810</v>
+        <v>11176</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>98</v>
+        <v>255</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4481,153 +4067,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="D12" s="7">
-        <v>87982</v>
+        <v>27531</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="I12" s="7">
-        <v>66009</v>
+        <v>30909</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>233</v>
+        <v>84</v>
       </c>
       <c r="N12" s="7">
-        <v>153991</v>
+        <v>58441</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="D13" s="7">
-        <v>24509</v>
+        <v>84150</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="H13" s="7">
-        <v>34</v>
+        <v>176</v>
       </c>
       <c r="I13" s="7">
-        <v>21506</v>
+        <v>123465</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>245</v>
+        <v>98</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="M13" s="7">
-        <v>67</v>
+        <v>307</v>
       </c>
       <c r="N13" s="7">
-        <v>46015</v>
+        <v>207615</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D14" s="7">
-        <v>5079</v>
+        <v>16164</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="H14" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I14" s="7">
-        <v>5834</v>
+        <v>8127</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>254</v>
+        <v>107</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="M14" s="7">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="N14" s="7">
-        <v>10913</v>
+        <v>24291</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,216 +4222,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="D15" s="7">
-        <v>29588</v>
+        <v>100314</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="I15" s="7">
-        <v>27340</v>
+        <v>131592</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>84</v>
+        <v>341</v>
       </c>
       <c r="N15" s="7">
-        <v>56928</v>
+        <v>231906</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>176</v>
-      </c>
-      <c r="D16" s="7">
-        <v>118634</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H16" s="7">
-        <v>131</v>
-      </c>
-      <c r="I16" s="7">
-        <v>84601</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="M16" s="7">
-        <v>307</v>
-      </c>
-      <c r="N16" s="7">
-        <v>203235</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>12</v>
-      </c>
-      <c r="D17" s="7">
-        <v>7791</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="H17" s="7">
-        <v>22</v>
-      </c>
-      <c r="I17" s="7">
-        <v>15322</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="M17" s="7">
-        <v>34</v>
-      </c>
-      <c r="N17" s="7">
-        <v>23113</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>188</v>
-      </c>
-      <c r="D18" s="7">
-        <v>126425</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>153</v>
-      </c>
-      <c r="I18" s="7">
-        <v>99923</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="7">
-        <v>341</v>
-      </c>
-      <c r="N18" s="7">
-        <v>226348</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>90</v>
+      <c r="A16" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
